--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.15/avg_0.004_scores.xlsx
@@ -94,10 +94,10 @@
     <t>better</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
   </si>
   <si>
     <t>fresh</t>
@@ -1052,25 +1052,25 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.7665198237885462</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L18">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="M18">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P18" t="b">
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1078,25 +1078,25 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.7575757575757576</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L19">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="M19">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="N19">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1260,25 +1260,25 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.6481481481481481</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L26">
         <v>210</v>
       </c>
       <c r="M26">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="N26">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="10:17">
